--- a/20Setembro_1.xlsx
+++ b/20Setembro_1.xlsx
@@ -42,8 +42,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="00FFA07A"/>
+        <bgColor rgb="00FFA07A"/>
       </patternFill>
     </fill>
   </fills>

--- a/20Setembro_1.xlsx
+++ b/20Setembro_1.xlsx
@@ -33,7 +33,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -44,6 +44,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.7999816888943144"/>
         <bgColor theme="4" tint="0.7999816888943144"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000ff00"/>
       </patternFill>
     </fill>
     <fill>
@@ -76,7 +82,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -88,6 +94,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,84 +750,84 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="7" t="n">
         <v>45607</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="8" t="n">
         <v>1234567</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>NOME EXEMPLO 2</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>000.000.000-00</t>
         </is>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="8" t="n">
         <v>74226936403</v>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>EXEMPLO PLANO</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>PLANO EXEMPLO</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="n">
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>PLANO EXEMPLO</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="n">
         <v>45555</v>
       </c>
-      <c r="I5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>NOME EXEMPLO</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="n"/>
-      <c r="M5" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="N5" s="5" t="n"/>
-      <c r="O5" s="5" t="n"/>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t>000 EXEMPLO</t>
-        </is>
-      </c>
-      <c r="Q5" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="R5" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="S5" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="T5" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U5" s="4" t="n">
+      <c r="I5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="n"/>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>NOME EXEMPLO</t>
+        </is>
+      </c>
+      <c r="L5" s="8" t="n"/>
+      <c r="M5" s="8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N5" s="8" t="n"/>
+      <c r="O5" s="8" t="n"/>
+      <c r="P5" s="8" t="inlineStr">
+        <is>
+          <t>000 EXEMPLO</t>
+        </is>
+      </c>
+      <c r="Q5" s="8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="R5" s="8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="S5" s="8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T5" s="8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U5" s="7" t="n">
         <v>45555</v>
       </c>
-      <c r="V5" s="5" t="inlineStr">
+      <c r="V5" s="8" t="inlineStr">
         <is>
           <t>Pedro</t>
         </is>

--- a/20Setembro_1.xlsx
+++ b/20Setembro_1.xlsx
@@ -48,14 +48,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000ff00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000ff00"/>
       </patternFill>
     </fill>
   </fills>
@@ -834,80 +834,84 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="4" t="n">
         <v>45608</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="5" t="n">
         <v>1234567</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>NOME EXEMPLO 3</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>000.000.000-00</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="5" t="n">
         <v>13218663776</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>EXEMPLO PLANO</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>PLANO EXEMPLO</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="n">
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>PLANO EXEMPLO</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="n">
         <v>45555</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>NOME EXEMPLO</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>000 EXEMPLO</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="I6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NOME EXEMPLO</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="n"/>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="n"/>
+      <c r="O6" s="5" t="n"/>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>000 EXEMPLO</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U6" s="1" t="n">
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U6" s="4" t="n">
         <v>45555</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>Pedro</t>
         </is>

--- a/20Setembro_1.xlsx
+++ b/20Setembro_1.xlsx
@@ -33,7 +33,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -44,12 +44,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.7999816888943144"/>
         <bgColor theme="4" tint="0.7999816888943144"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000ff00"/>
       </patternFill>
     </fill>
     <fill>
@@ -82,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -94,8 +88,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,84 +742,84 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="4" t="n">
         <v>45607</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="5" t="n">
         <v>1234567</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>NOME EXEMPLO 2</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>000.000.000-00</t>
         </is>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="5" t="n">
         <v>74226936403</v>
       </c>
-      <c r="F5" s="8" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>EXEMPLO PLANO</t>
         </is>
       </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>PLANO EXEMPLO</t>
-        </is>
-      </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>PLANO EXEMPLO</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="n">
         <v>45555</v>
       </c>
-      <c r="I5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="n"/>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>NOME EXEMPLO</t>
-        </is>
-      </c>
-      <c r="L5" s="8" t="n"/>
-      <c r="M5" s="8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="N5" s="8" t="n"/>
-      <c r="O5" s="8" t="n"/>
-      <c r="P5" s="8" t="inlineStr">
-        <is>
-          <t>000 EXEMPLO</t>
-        </is>
-      </c>
-      <c r="Q5" s="8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="R5" s="8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="S5" s="8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="T5" s="8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U5" s="7" t="n">
+      <c r="I5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NOME EXEMPLO</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="n"/>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N5" s="5" t="n"/>
+      <c r="O5" s="5" t="n"/>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>000 EXEMPLO</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U5" s="4" t="n">
         <v>45555</v>
       </c>
-      <c r="V5" s="8" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>Pedro</t>
         </is>
